--- a/analysis/metadata/P10_3/P10_3_minimal_metadata.xlsx
+++ b/analysis/metadata/P10_3/P10_3_minimal_metadata.xlsx
@@ -466,6 +466,11 @@
           <t>3201</t>
         </is>
       </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>09/10/2020 00:00</t>
+        </is>
+      </c>
       <c r="I2" t="inlineStr">
         <is>
           <t>bio7ee20</t>
@@ -484,6 +489,11 @@
       <c r="L2" t="inlineStr">
         <is>
           <t>Natural</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>09/10/2020 00:00</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
@@ -529,6 +539,11 @@
           <t>3201</t>
         </is>
       </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>09/10/2020 00:00</t>
+        </is>
+      </c>
       <c r="I3" t="inlineStr">
         <is>
           <t>bio7ee20</t>
@@ -547,6 +562,11 @@
       <c r="L3" t="inlineStr">
         <is>
           <t>Natural</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>09/10/2020 00:00</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
@@ -592,6 +612,11 @@
           <t>3201</t>
         </is>
       </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>09/10/2020 00:00</t>
+        </is>
+      </c>
       <c r="I4" t="inlineStr">
         <is>
           <t>bio7ee20</t>
@@ -610,6 +635,11 @@
       <c r="L4" t="inlineStr">
         <is>
           <t>Natural</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>09/10/2020 00:00</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
@@ -655,6 +685,11 @@
           <t>3201</t>
         </is>
       </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>09/10/2020 00:00</t>
+        </is>
+      </c>
       <c r="I5" t="inlineStr">
         <is>
           <t>bio7ee20</t>
@@ -673,6 +708,11 @@
       <c r="L5" t="inlineStr">
         <is>
           <t>Natural</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>09/10/2020 00:00</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
@@ -718,6 +758,11 @@
           <t>3201</t>
         </is>
       </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>09/10/2020 00:00</t>
+        </is>
+      </c>
       <c r="I6" t="inlineStr">
         <is>
           <t>bio7ee20</t>
@@ -736,6 +781,11 @@
       <c r="L6" t="inlineStr">
         <is>
           <t>Natural</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>09/10/2020 00:00</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
@@ -781,6 +831,11 @@
           <t>3201</t>
         </is>
       </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>09/10/2020 00:00</t>
+        </is>
+      </c>
       <c r="I7" t="inlineStr">
         <is>
           <t>bio7ee20</t>
@@ -799,6 +854,11 @@
       <c r="L7" t="inlineStr">
         <is>
           <t>Natural</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>09/10/2020 00:00</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
@@ -844,6 +904,11 @@
           <t>3201</t>
         </is>
       </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>09/10/2020 00:00</t>
+        </is>
+      </c>
       <c r="I8" t="inlineStr">
         <is>
           <t>bio7ee20</t>
@@ -862,6 +927,11 @@
       <c r="L8" t="inlineStr">
         <is>
           <t>Natural</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>09/10/2020 00:00</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
@@ -907,6 +977,11 @@
           <t>3201</t>
         </is>
       </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>09/10/2020 00:00</t>
+        </is>
+      </c>
       <c r="I9" t="inlineStr">
         <is>
           <t>bio7ee20</t>
@@ -925,6 +1000,11 @@
       <c r="L9" t="inlineStr">
         <is>
           <t>Natural</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>09/10/2020 00:00</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
@@ -972,7 +1052,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2020-09-06</t>
+          <t>06/09/2020 00:00</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -997,7 +1077,7 @@
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>2020-09-06</t>
+          <t>06/09/2020 00:00</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
@@ -1006,11 +1086,6 @@
         </is>
       </c>
       <c r="O10" t="inlineStr">
-        <is>
-          <t>Running freshwater</t>
-        </is>
-      </c>
-      <c r="P10" t="inlineStr">
         <is>
           <t>Running freshwater</t>
         </is>
@@ -1045,7 +1120,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2020-09-17</t>
+          <t>17/09/2020 00:00</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -1070,7 +1145,7 @@
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>2020-09-17</t>
+          <t>17/09/2020 00:00</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
@@ -1079,11 +1154,6 @@
         </is>
       </c>
       <c r="O11" t="inlineStr">
-        <is>
-          <t>Running freshwater</t>
-        </is>
-      </c>
-      <c r="P11" t="inlineStr">
         <is>
           <t>Running freshwater</t>
         </is>

--- a/analysis/metadata/P10_3/P10_3_minimal_metadata.xlsx
+++ b/analysis/metadata/P10_3/P10_3_minimal_metadata.xlsx
@@ -468,7 +468,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>09/10/2020 00:00</t>
+          <t>2020-10-09</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -493,7 +493,7 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>09/10/2020 00:00</t>
+          <t>2020-10-09</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
@@ -541,7 +541,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>09/10/2020 00:00</t>
+          <t>2020-10-09</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -566,7 +566,7 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>09/10/2020 00:00</t>
+          <t>2020-10-09</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
@@ -614,7 +614,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>09/10/2020 00:00</t>
+          <t>2020-10-09</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -639,7 +639,7 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>09/10/2020 00:00</t>
+          <t>2020-10-09</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
@@ -687,7 +687,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>09/10/2020 00:00</t>
+          <t>2020-10-09</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -712,7 +712,7 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>09/10/2020 00:00</t>
+          <t>2020-10-09</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
@@ -760,7 +760,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>09/10/2020 00:00</t>
+          <t>2020-10-09</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -785,7 +785,7 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>09/10/2020 00:00</t>
+          <t>2020-10-09</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
@@ -833,7 +833,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>09/10/2020 00:00</t>
+          <t>2020-10-09</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -858,7 +858,7 @@
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>09/10/2020 00:00</t>
+          <t>2020-10-09</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
@@ -906,7 +906,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>09/10/2020 00:00</t>
+          <t>2020-10-09</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -931,7 +931,7 @@
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>09/10/2020 00:00</t>
+          <t>2020-10-09</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
@@ -979,7 +979,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>09/10/2020 00:00</t>
+          <t>2020-10-09</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -1004,7 +1004,7 @@
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>09/10/2020 00:00</t>
+          <t>2020-10-09</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
@@ -1052,7 +1052,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>06/09/2020 00:00</t>
+          <t>2020-09-06</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -1077,7 +1077,7 @@
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>06/09/2020 00:00</t>
+          <t>2020-09-06</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
@@ -1120,7 +1120,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>17/09/2020 00:00</t>
+          <t>2020-09-17</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -1145,7 +1145,7 @@
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>17/09/2020 00:00</t>
+          <t>2020-09-17</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
